--- a/data_fundamentosdeanalisisdedatos/channels youtube.xlsx
+++ b/data_fundamentosdeanalisisdedatos/channels youtube.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Desktop\Documentos Noveno Ciclo\TESIS\data-scienceTIC\data_fundamentosdeanalisisdedatos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED6C7BA0-21AA-4046-BB5E-7BECE3CB4754}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB359AC-3DB6-4A95-B460-0472ECC1FE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{E3D651C4-3D88-4303-BB6D-07B749995E86}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" refMode="R1C1" iterateCount="0" calcOnSave="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="98">
   <si>
     <t>channel_ID</t>
   </si>
@@ -186,6 +186,150 @@
   </si>
   <si>
     <t>channel_name</t>
+  </si>
+  <si>
+    <t>freeCodeCamp.org</t>
+  </si>
+  <si>
+    <t>UC8butISFwT-Wl7EV0hUK0BQ</t>
+  </si>
+  <si>
+    <t>A2 Capacitación: Excel</t>
+  </si>
+  <si>
+    <t>UCSW-_m4KXiok4Hq2nK97atw</t>
+  </si>
+  <si>
+    <t>codebasics</t>
+  </si>
+  <si>
+    <t>UCh9nVJoWXmFb7sLApWGcLPQ</t>
+  </si>
+  <si>
+    <t>Data Science for Everyone</t>
+  </si>
+  <si>
+    <t>UCk13_EXljNVOEQTAbaJo8zA</t>
+  </si>
+  <si>
+    <t>edureka</t>
+  </si>
+  <si>
+    <t>UCkw4JCwteGrDHIsyIIKo4tQ</t>
+  </si>
+  <si>
+    <t>MarinStatsLectures-R Programming &amp; Statistics</t>
+  </si>
+  <si>
+    <t>UCaNIxVagLhqupvUiDK01Mgg</t>
+  </si>
+  <si>
+    <t>Danny Arends</t>
+  </si>
+  <si>
+    <t>UCYWBlijAB6IOpHIwsb3cecA</t>
+  </si>
+  <si>
+    <t>David Langer</t>
+  </si>
+  <si>
+    <t>UCRhUp6SYaJ7zme4Bjwt28DQ</t>
+  </si>
+  <si>
+    <t>FNE Profesor</t>
+  </si>
+  <si>
+    <t>UCu9NQ0CIbWnahmqNbENI2iA</t>
+  </si>
+  <si>
+    <t>Farhan Mohamed</t>
+  </si>
+  <si>
+    <t>UClx_a73iDuDLlSEvWAfHivQ</t>
+  </si>
+  <si>
+    <t>Dr. Data Science</t>
+  </si>
+  <si>
+    <t>UCq8JE4cOzY_CHy7f1PwbwwQ</t>
+  </si>
+  <si>
+    <t>NeuralNine</t>
+  </si>
+  <si>
+    <t>UC8wZnXYK_CGKlBcZp-GxYPA</t>
+  </si>
+  <si>
+    <t>Thu Vu data analytics</t>
+  </si>
+  <si>
+    <t>UCJQJAI7IjbLcpsjWdSzYz0Q</t>
+  </si>
+  <si>
+    <t>Data Science Show</t>
+  </si>
+  <si>
+    <t>UCLSFrH7H3Memua6CV7bdVcQ</t>
+  </si>
+  <si>
+    <t>Best PYTHON Courses and Tutorials</t>
+  </si>
+  <si>
+    <t>UCs3KiJ5jT_3JiVaBDE9Bfqw</t>
+  </si>
+  <si>
+    <t>AprendeIA con Ligdi Gonzalez</t>
+  </si>
+  <si>
+    <t>UCLJV54sFqPiH4MYcJKvGesg</t>
+  </si>
+  <si>
+    <t>Kaggle</t>
+  </si>
+  <si>
+    <t>UCSNeZleDn9c74yQc-EKnVTA</t>
+  </si>
+  <si>
+    <t>leslysandra</t>
+  </si>
+  <si>
+    <t>UCDerUQBMKAAGj55PtuBYZoA</t>
+  </si>
+  <si>
+    <t>SDC LEARNING</t>
+  </si>
+  <si>
+    <t>UCdUW3yDCYlpALT3UeWW2YaQ</t>
+  </si>
+  <si>
+    <t>Sepinoud Azimi</t>
+  </si>
+  <si>
+    <t>UCMlnFoQib8_TR__RjZH_TVg</t>
+  </si>
+  <si>
+    <t>Better Data Science</t>
+  </si>
+  <si>
+    <t>UCzwWYDA9IuJ7iFrvbZsvRwQ</t>
+  </si>
+  <si>
+    <t>StrataScratch</t>
+  </si>
+  <si>
+    <t>UCW8Ews7tdKKkBT6GdtQaXvQ</t>
+  </si>
+  <si>
+    <t>Leonardo Kuffo</t>
+  </si>
+  <si>
+    <t>UCMqY16CUHOQvKepPW-f9M8Q</t>
+  </si>
+  <si>
+    <t>Ken Jee</t>
+  </si>
+  <si>
+    <t>UCiT9RITQ9PW6BhXK0y2jaeg</t>
   </si>
 </sst>
 </file>
@@ -537,13 +681,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C31C424D-9DDC-4145-BA2A-CC07720EF72F}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="33.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -743,6 +890,206 @@
       </c>
       <c r="B25" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>74</v>
+      </c>
+      <c r="B48" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>94</v>
+      </c>
+      <c r="B49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B50" t="s">
+        <v>97</v>
       </c>
     </row>
   </sheetData>
